--- a/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3059,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>891</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>721</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4934</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>8819</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36340</t>
+          <t>32637</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32092</t>
+          <t>28852</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40332</t>
+          <t>36362</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51147</t>
+          <t>47663</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46261</t>
+          <t>43386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>56164</t>
+          <t>52591</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>87488</t>
+          <t>80300</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>80887</t>
+          <t>74543</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>94047</t>
+          <t>86177</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51297</t>
+          <t>46417</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47203</t>
+          <t>42519</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55406</t>
+          <t>50412</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71630</t>
+          <t>64600</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66443</t>
+          <t>59769</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76684</t>
+          <t>69026</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>122926</t>
+          <t>111017</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>116768</t>
+          <t>105096</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>129915</t>
+          <t>116767</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>58,21%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5431</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3770</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>8883</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4935</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7271</t>
+          <t>6899</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>10366</t>
+          <t>11463</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>7923</t>
+          <t>8832</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>13183</t>
+          <t>14662</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19547</t>
+          <t>22369</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16143</t>
+          <t>18663</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23595</t>
+          <t>26891</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16848</t>
+          <t>19950</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13694</t>
+          <t>16057</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20674</t>
+          <t>23941</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>36395</t>
+          <t>42319</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31369</t>
+          <t>36738</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41937</t>
+          <t>48234</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>157638</t>
+          <t>157608</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148642</t>
+          <t>149059</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>166702</t>
+          <t>166768</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>155672</t>
+          <t>154482</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>146309</t>
+          <t>145491</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>164976</t>
+          <t>163383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>313309</t>
+          <t>312090</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>300426</t>
+          <t>300023</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>326729</t>
+          <t>325015</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>35,44%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>280891</t>
+          <t>281831</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>271545</t>
+          <t>271739</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>289794</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>261896</t>
+          <t>269435</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>253007</t>
+          <t>260748</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>271547</t>
+          <t>279655</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>59,61%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>58,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>542787</t>
+          <t>551265</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>529397</t>
+          <t>537384</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>555414</t>
+          <t>563353</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>58,64%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>61,43%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>814</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6830</t>
+          <t>8744</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4912</t>
+          <t>6189</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9483</t>
+          <t>11954</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7712</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10628</t>
+          <t>13577</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>19107</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>11584</t>
+          <t>15390</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>17766</t>
+          <t>23358</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>48130</t>
+          <t>52887</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43489</t>
+          <t>47005</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>53927</t>
+          <t>58505</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>56248</t>
+          <t>65159</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50279</t>
+          <t>58722</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>61640</t>
+          <t>71869</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>104378</t>
+          <t>118046</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>97407</t>
+          <t>109582</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>112631</t>
+          <t>127200</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>100137</t>
+          <t>122557</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94682</t>
+          <t>116207</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>105004</t>
+          <t>128586</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>134644</t>
+          <t>164190</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>128754</t>
+          <t>156930</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>140771</t>
+          <t>171002</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>67,36%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,42%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>234781</t>
+          <t>286747</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>226481</t>
+          <t>277546</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>242153</t>
+          <t>295688</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>66,11%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>69,4%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>5638</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8974</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8073</t>
+          <t>8296</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6061</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11256</t>
+          <t>11166</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14436</t>
+          <t>15990</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11493</t>
+          <t>12967</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>17963</t>
+          <t>19809</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29164</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24938</t>
+          <t>29104</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34478</t>
+          <t>39230</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27829</t>
+          <t>34442</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>23437</t>
+          <t>30038</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>32767</t>
+          <t>40309</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>56993</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>50704</t>
+          <t>61366</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>63587</t>
+          <t>76162</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>242108</t>
+          <t>243132</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>231511</t>
+          <t>230445</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>253845</t>
+          <t>254455</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>263067</t>
+          <t>267305</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>251041</t>
+          <t>256011</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>275871</t>
+          <t>280469</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>505175</t>
+          <t>510436</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>488844</t>
+          <t>494000</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>521918</t>
+          <t>526350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>432324</t>
+          <t>450805</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>420330</t>
+          <t>438364</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>443165</t>
+          <t>463036</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>60,89%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>59,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>468170</t>
+          <t>498225</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>455118</t>
+          <t>485010</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>480420</t>
+          <t>509707</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>900494</t>
+          <t>949030</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>885189</t>
+          <t>931618</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>917514</t>
+          <t>965230</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>62,52%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">

--- a/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>9838</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>6062</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>14414</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>13829</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>9649</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>19835</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>28423</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>21269</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>37808</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>19017</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>14082</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>24881</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>47440</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>38863</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>58645</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32637</t>
+          <t>113354</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28852</t>
+          <t>102321</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36362</t>
+          <t>123421</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47663</t>
+          <t>146767</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43386</t>
+          <t>136541</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52591</t>
+          <t>158148</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>647</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>80300</t>
+          <t>260121</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>74543</t>
+          <t>246234</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>86177</t>
+          <t>274619</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>59,88%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46417</t>
+          <t>64686</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42519</t>
+          <t>55606</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50412</t>
+          <t>74875</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64600</t>
+          <t>72570</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59769</t>
+          <t>62210</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>69026</t>
+          <t>82788</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>341</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>111017</t>
+          <t>137255</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>105096</t>
+          <t>124172</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>116767</t>
+          <t>151749</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>55,34%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>544</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210454</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210454</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210454</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>589</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>248193</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>248193</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>248193</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458646</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458646</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>458646</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>24104</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>16847</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8883</t>
+          <t>33062</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>23505</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>16327</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11463</t>
+          <t>47609</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8832</t>
+          <t>37690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14662</t>
+          <t>59491</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22369</t>
+          <t>74682</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18663</t>
+          <t>62633</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26891</t>
+          <t>87472</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19950</t>
+          <t>60273</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16057</t>
+          <t>48145</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23941</t>
+          <t>73325</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>42319</t>
+          <t>134955</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36738</t>
+          <t>117643</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>48234</t>
+          <t>153301</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>157608</t>
+          <t>471099</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149059</t>
+          <t>448843</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>166768</t>
+          <t>493556</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>786</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>154482</t>
+          <t>436151</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>145491</t>
+          <t>414301</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>163383</t>
+          <t>457156</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>312090</t>
+          <t>907250</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>300023</t>
+          <t>877138</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>325015</t>
+          <t>937665</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>60,11%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>281831</t>
+          <t>227629</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>271739</t>
+          <t>206133</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>247582</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>269435</t>
+          <t>242427</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>260748</t>
+          <t>221379</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>279655</t>
+          <t>262275</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>884</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>551265</t>
+          <t>470056</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>537384</t>
+          <t>439611</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>563353</t>
+          <t>497681</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>797514</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>797514</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>797514</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>762356</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>762356</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>762356</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1559870</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1559870</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1559870</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>12677</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7404</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>19899</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>7418</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>18523</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>24757</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>17684</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3727</t>
+          <t>35128</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>30733</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>22612</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11954</t>
+          <t>39648</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>35736</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>26051</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13577</t>
+          <t>47882</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>19107</t>
+          <t>66469</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>54248</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>23358</t>
+          <t>81397</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52887</t>
+          <t>211627</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47005</t>
+          <t>195934</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58505</t>
+          <t>228453</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>52,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65159</t>
+          <t>213760</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>58722</t>
+          <t>196957</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>71869</t>
+          <t>229716</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>118046</t>
+          <t>425387</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>109582</t>
+          <t>397689</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>127200</t>
+          <t>448044</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>57,77%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>122557</t>
+          <t>115386</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>116207</t>
+          <t>100190</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>128586</t>
+          <t>130787</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>164190</t>
+          <t>143595</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>156930</t>
+          <t>127846</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>171002</t>
+          <t>159135</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>448</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>286747</t>
+          <t>258981</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>277546</t>
+          <t>237936</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>295688</t>
+          <t>284231</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>36,65%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370422</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775594</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,107 +2436,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7694</t>
+          <t>40771</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5638</t>
+          <t>31685</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10607</t>
+          <t>52652</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8296</t>
+          <t>45424</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6061</t>
+          <t>36215</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11166</t>
+          <t>57253</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>151</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>86196</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12967</t>
+          <t>72654</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19809</t>
+          <t>101553</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33892</t>
+          <t>133837</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29104</t>
+          <t>117600</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39230</t>
+          <t>153508</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>34442</t>
+          <t>115027</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30038</t>
+          <t>99078</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40309</t>
+          <t>132197</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>468</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>68335</t>
+          <t>248864</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>61366</t>
+          <t>224595</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>76162</t>
+          <t>276597</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>243132</t>
+          <t>796081</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>230445</t>
+          <t>767916</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>254455</t>
+          <t>823510</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>267305</t>
+          <t>796678</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>256011</t>
+          <t>766608</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>280469</t>
+          <t>826653</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>510436</t>
+          <t>1592758</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>494000</t>
+          <t>1551787</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>526350</t>
+          <t>1637359</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>58,6%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2509</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>450805</t>
+          <t>407701</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>438364</t>
+          <t>383839</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>463036</t>
+          <t>435725</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,29%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>59,6%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>498225</t>
+          <t>458591</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>485010</t>
+          <t>430269</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>509707</t>
+          <t>484309</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>949030</t>
+          <t>866292</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>931618</t>
+          <t>825048</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>965230</t>
+          <t>904964</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>32,39%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1378390</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1378390</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1378390</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1415720</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1415720</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1415720</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>5357</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2794110</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2794110</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2794110</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3059,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>891</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2131</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9838</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6062</t>
+          <t>721</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14414</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>13829</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9649</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19835</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -3357,107 +3357,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28423</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21269</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37808</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19017</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14082</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24881</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>47440</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>38863</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>58645</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -3470,107 +3470,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>113354</t>
+          <t>32637</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>102321</t>
+          <t>28852</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>123421</t>
+          <t>36362</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>290</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>146767</t>
+          <t>47663</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>136541</t>
+          <t>43386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>158148</t>
+          <t>52591</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>487</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>260121</t>
+          <t>80300</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>246234</t>
+          <t>74543</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>274619</t>
+          <t>86177</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>59,88%</t>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -3583,107 +3583,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64686</t>
+          <t>46417</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55606</t>
+          <t>42519</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74875</t>
+          <t>50412</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72570</t>
+          <t>64600</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62210</t>
+          <t>59769</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82788</t>
+          <t>69026</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>726</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>137255</t>
+          <t>111017</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>124172</t>
+          <t>105096</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>151749</t>
+          <t>116767</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>58,21%</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>210454</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>210454</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>210454</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3731,22 +3731,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>248193</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>248193</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248193</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3766,22 +3766,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>458646</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>458646</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>458646</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3813,107 +3813,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24104</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16847</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33062</t>
+          <t>8883</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23505</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16327</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>6899</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>47609</t>
+          <t>11463</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>37690</t>
+          <t>8832</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>59491</t>
+          <t>14662</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -3926,107 +3926,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>74682</t>
+          <t>22369</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62633</t>
+          <t>18663</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87472</t>
+          <t>26891</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>60273</t>
+          <t>19950</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48145</t>
+          <t>16057</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>73325</t>
+          <t>23941</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>134955</t>
+          <t>42319</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>117643</t>
+          <t>36738</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>153301</t>
+          <t>48234</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -4039,107 +4039,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>471099</t>
+          <t>157608</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>448843</t>
+          <t>149059</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>493556</t>
+          <t>166768</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>877</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>436151</t>
+          <t>154482</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>414301</t>
+          <t>145491</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>457156</t>
+          <t>163383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>907250</t>
+          <t>312090</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>877138</t>
+          <t>300023</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>937665</t>
+          <t>325015</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>35,44%</t>
         </is>
       </c>
     </row>
@@ -4152,107 +4152,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>227629</t>
+          <t>281831</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>206133</t>
+          <t>271739</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>247582</t>
+          <t>290564</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>242427</t>
+          <t>269435</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>221379</t>
+          <t>260748</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>262275</t>
+          <t>279655</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>58,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>470056</t>
+          <t>551265</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>439611</t>
+          <t>537384</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>497681</t>
+          <t>563353</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>61,43%</t>
         </is>
       </c>
     </row>
@@ -4265,22 +4265,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>797514</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>797514</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>797514</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4300,22 +4300,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>762356</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>762356</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>762356</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4335,22 +4335,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1559870</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1559870</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1559870</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4382,107 +4382,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12677</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7404</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19899</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7418</t>
+          <t>814</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18523</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>24757</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>17684</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35128</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -4495,107 +4495,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30733</t>
+          <t>8744</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22612</t>
+          <t>6189</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39648</t>
+          <t>11954</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35736</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26051</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47882</t>
+          <t>13577</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>66469</t>
+          <t>19107</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>54248</t>
+          <t>15390</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>81397</t>
+          <t>23358</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -4608,107 +4608,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>211627</t>
+          <t>52887</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>195934</t>
+          <t>47005</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>228453</t>
+          <t>58505</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>213760</t>
+          <t>65159</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>196957</t>
+          <t>58722</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>229716</t>
+          <t>71869</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>603</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>425387</t>
+          <t>118046</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>397689</t>
+          <t>109582</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>448044</t>
+          <t>127200</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -4721,107 +4721,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>115386</t>
+          <t>122557</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100190</t>
+          <t>116207</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>130787</t>
+          <t>128586</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>820</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>143595</t>
+          <t>164190</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>127846</t>
+          <t>156930</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>159135</t>
+          <t>171002</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>258981</t>
+          <t>286747</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>237936</t>
+          <t>277546</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>284231</t>
+          <t>295688</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>69,4%</t>
         </is>
       </c>
     </row>
@@ -4834,22 +4834,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>370422</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4869,22 +4869,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4904,22 +4904,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>775594</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4951,107 +4951,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40771</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31685</t>
+          <t>5638</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52652</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45424</t>
+          <t>8296</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>36215</t>
+          <t>6061</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57253</t>
+          <t>11166</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>86196</t>
+          <t>15990</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>72654</t>
+          <t>12967</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>101553</t>
+          <t>19809</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -5064,107 +5064,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>133837</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>117600</t>
+          <t>29104</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>153508</t>
+          <t>39230</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>115027</t>
+          <t>34442</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99078</t>
+          <t>30038</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>132197</t>
+          <t>40309</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>347</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>248864</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>224595</t>
+          <t>61366</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>276597</t>
+          <t>76162</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -5177,107 +5177,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>796081</t>
+          <t>243132</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>767916</t>
+          <t>230445</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>823510</t>
+          <t>254455</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>796678</t>
+          <t>267305</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>766608</t>
+          <t>256011</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>826653</t>
+          <t>280469</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>1592758</t>
+          <t>510436</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1551787</t>
+          <t>494000</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1637359</t>
+          <t>526350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -5290,107 +5290,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>2509</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>407701</t>
+          <t>450805</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>383839</t>
+          <t>438364</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>435725</t>
+          <t>463036</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>59,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>458591</t>
+          <t>498225</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>430269</t>
+          <t>485010</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>484309</t>
+          <t>509707</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>5270</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>866292</t>
+          <t>949030</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>825048</t>
+          <t>931618</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>904964</t>
+          <t>965230</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>62,52%</t>
         </is>
       </c>
     </row>
@@ -5403,22 +5403,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1378390</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1378390</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1378390</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5438,22 +5438,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1415720</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1415720</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1415720</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5473,22 +5473,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2794110</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2794110</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2794110</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
